--- a/Auswertungen/Interviews.xlsx
+++ b/Auswertungen/Interviews.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem Kategorien" sheetId="1" r:id="rId1"/>
-    <sheet name="Probleme Übersicht" sheetId="3" r:id="rId2"/>
-    <sheet name="Standorte" sheetId="2" r:id="rId3"/>
+    <sheet name="Probleme Übersicht" sheetId="3" r:id="rId1"/>
+    <sheet name="Standorte" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Geo</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Systembruch</t>
-  </si>
-  <si>
-    <t>Datenstruktur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Interview ID</t>
   </si>
@@ -67,9 +51,6 @@
     <t>Aufgeteilte Daten</t>
   </si>
   <si>
-    <t>Strukturen für  kundenspezifischen Daten</t>
-  </si>
-  <si>
     <t>Routenverwaltung</t>
   </si>
   <si>
@@ -80,6 +61,9 @@
   </si>
   <si>
     <t>Visualisierung Geodaten</t>
+  </si>
+  <si>
+    <t>Datenstrukturen</t>
   </si>
 </sst>
 </file>
@@ -431,78 +415,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
       <c r="D2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -513,13 +510,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -529,171 +529,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Auswertungen/Interviews.xlsx
+++ b/Auswertungen/Interviews.xlsx
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Probleme Übersicht" sheetId="3" r:id="rId1"/>
     <sheet name="Standorte" sheetId="2" r:id="rId2"/>
+    <sheet name="Übersicht Interviews" sheetId="4" r:id="rId3"/>
+    <sheet name="Vorkommen Kategorien" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Übersicht Interviews'!$A$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Vorkommen Kategorien'!$A$1:$B$6</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Interview ID</t>
   </si>
@@ -64,6 +70,42 @@
   </si>
   <si>
     <t>Datenstrukturen</t>
+  </si>
+  <si>
+    <t>Systembruch</t>
+  </si>
+  <si>
+    <t>Übersicht Standorte</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Interview 1</t>
+  </si>
+  <si>
+    <t>Interview 3</t>
+  </si>
+  <si>
+    <t>Interview 2</t>
+  </si>
+  <si>
+    <t>S. 29, 2x S.31, S. 34, 2x S.35</t>
+  </si>
+  <si>
+    <t>S. 29, S. 31, S. 32, S. 34, S. 35</t>
+  </si>
+  <si>
+    <t>S. 29, S.31, S. 32, 2x S.35</t>
+  </si>
+  <si>
+    <t>S. 31, S. 34</t>
+  </si>
+  <si>
+    <t>3x S.29, 2x S.31, 2x S. 32, S. 34, 2x S.35</t>
+  </si>
+  <si>
+    <t>S. 32</t>
   </si>
 </sst>
 </file>
@@ -418,19 +460,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -476,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -499,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -531,17 +573,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -571,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -584,6 +626,197 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Auswertungen/Interviews.xlsx
+++ b/Auswertungen/Interviews.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Interview ID</t>
   </si>
@@ -631,10 +631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,21 +727,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Auswertungen/Interviews.xlsx
+++ b/Auswertungen/Interviews.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muenc\Documents\git\MasterThesis\Auswertungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muenc\Documents\MasterThesis\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Probleme Übersicht" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Interview ID</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>S. 32</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -158,6 +161,1210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Auswertung der</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> Interviews</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Übersicht Interviews'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interview 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Übersicht Interviews'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Systembruch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Datenstrukturen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Routenverwaltung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Filterungsverfahren</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Übersicht Standorte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Übersicht Interviews'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B77C-4315-861F-FB4FFF6BFEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Übersicht Interviews'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interview 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Übersicht Interviews'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Systembruch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Datenstrukturen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Routenverwaltung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Filterungsverfahren</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Übersicht Standorte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Übersicht Interviews'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B77C-4315-861F-FB4FFF6BFEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Übersicht Interviews'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interview 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Übersicht Interviews'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Systembruch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Datenstrukturen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Routenverwaltung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Filterungsverfahren</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Übersicht Standorte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Übersicht Interviews'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B77C-4315-861F-FB4FFF6BFEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2066817567"/>
+        <c:axId val="1832815247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2066817567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1832815247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1832815247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Priorität</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066817567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5020DC74-3F00-4D9D-AC6F-7E2B1FEBED23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="3286125"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE81044-1A9F-437D-9687-BDCC4C43DFFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,16 +1670,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -577,13 +1784,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -605,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -613,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -631,25 +1838,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -659,8 +1866,11 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -673,8 +1883,12 @@
       <c r="D2">
         <v>3</v>
       </c>
+      <c r="E2">
+        <f>MEDIAN(B2:D2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -687,8 +1901,12 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">MEDIAN(B3:D3)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -701,8 +1919,12 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -715,8 +1937,12 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -727,6 +1953,10 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -734,6 +1964,7 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -745,13 +1976,13 @@
       <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -759,7 +1990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -767,7 +1998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -775,7 +2006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -783,7 +2014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -791,7 +2022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
